--- a/P&E/Clase 01.xlsx
+++ b/P&E/Clase 01.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="p12" sheetId="1" r:id="rId1"/>
     <sheet name="p14" sheetId="2" r:id="rId2"/>
+    <sheet name="Media, Mediana y Moda" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Datos">'Media, Mediana y Moda'!$A$2:$C$7</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>RENDIMIENTO</t>
   </si>
@@ -48,6 +52,27 @@
   </si>
   <si>
     <t>Salario</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Media:</t>
+  </si>
+  <si>
+    <t>Mediana:</t>
+  </si>
+  <si>
+    <t>Moda:</t>
+  </si>
+  <si>
+    <t>La media (o promedio) es el dato que obtenemos de sumar todos los valores y dividirlos por el número de datos.</t>
+  </si>
+  <si>
+    <t>Luego de ordenados los datos, la mediana es la posición central.</t>
+  </si>
+  <si>
+    <t>Es el dato que se repite más.</t>
   </si>
 </sst>
 </file>
@@ -57,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +103,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,15 +128,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -356,11 +416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197508480"/>
-        <c:axId val="197518464"/>
+        <c:axId val="165917824"/>
+        <c:axId val="165919360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197508480"/>
+        <c:axId val="165917824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -369,7 +429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197518464"/>
+        <c:crossAx val="165919360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -377,7 +437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197518464"/>
+        <c:axId val="165919360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,14 +448,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197508480"/>
+        <c:crossAx val="165917824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -644,11 +703,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="136312320"/>
-        <c:axId val="136313856"/>
+        <c:axId val="165847808"/>
+        <c:axId val="165849344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136312320"/>
+        <c:axId val="165847808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136313856"/>
+        <c:crossAx val="165849344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -665,7 +724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136313856"/>
+        <c:axId val="165849344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,14 +735,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136312320"/>
+        <c:crossAx val="165847808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1347,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1427,4 +1485,133 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="5"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1">
+        <f>ROUND(AVERAGE(Datos),2)</f>
+        <v>32.78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <f>ROUND(MEDIAN(Datos),2)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <f>ROUND(MODE(Datos),2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>